--- a/Grading_jaundice.xlsx
+++ b/Grading_jaundice.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mew_2\Desktop\Forfun\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A19F5-8DC5-4ED5-8222-8EC893A1D29A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16900" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,13 +33,13 @@
     <t>Low Intermediate</t>
   </si>
   <si>
-    <t>High intermediate</t>
+    <t>High Intermediate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,19 +350,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="19.7109375" customWidth="1"/>
+    <col min="3" max="4" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>12</v>
       </c>
@@ -386,7 +387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>24</v>
       </c>
@@ -400,7 +401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>36</v>
       </c>
@@ -414,7 +415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>48</v>
       </c>
@@ -428,7 +429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60</v>
       </c>
@@ -442,7 +443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>72</v>
       </c>
@@ -456,7 +457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>84</v>
       </c>
@@ -470,7 +471,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>96</v>
       </c>
@@ -484,7 +485,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>108</v>
       </c>
@@ -498,7 +499,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>120</v>
       </c>
@@ -512,7 +513,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>132</v>
       </c>
@@ -526,7 +527,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>144</v>
       </c>
